--- a/output/fit_clients/fit_round_315.xlsx
+++ b/output/fit_clients/fit_round_315.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2249100918.852263</v>
+        <v>1591622252.338792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1086135523691143</v>
+        <v>0.112473893216705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03372303561245032</v>
+        <v>0.0287228002842164</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1124550488.566818</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1780537823.801419</v>
+        <v>2320269101.173358</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1824259609510392</v>
+        <v>0.1848394335576643</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03279417654183029</v>
+        <v>0.03692438085444968</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>890268917.9755516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3620480989.315136</v>
+        <v>3234963114.067323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1417996725778295</v>
+        <v>0.1229858433649843</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03797012228275948</v>
+        <v>0.02660317028850189</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>113</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1810240481.955674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2900533129.282423</v>
+        <v>3318590697.726621</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09027812933139262</v>
+        <v>0.106156057391862</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04553070918353599</v>
+        <v>0.03875934356894494</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1450266641.050038</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2324905929.287973</v>
+        <v>2715571302.970032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1493409111564782</v>
+        <v>0.1309767952521242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03495527171080073</v>
+        <v>0.04421481136255933</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1162452959.080843</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2163487989.800675</v>
+        <v>2416689885.091172</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09012540379128013</v>
+        <v>0.06606676602674588</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03620896028457207</v>
+        <v>0.04463007156441104</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1081744040.328463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3208269273.153615</v>
+        <v>3325039228.67103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1371638204668855</v>
+        <v>0.2092423626018041</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02693897120035326</v>
+        <v>0.02359509895447784</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1604134715.382434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1827570247.449911</v>
+        <v>2291859487.458888</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1636120471064727</v>
+        <v>0.1900827739226124</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03049742062804324</v>
+        <v>0.03100691477956262</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>913785174.267507</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4821690376.838241</v>
+        <v>5128695012.058638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1597125560515175</v>
+        <v>0.1526570678653398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0334049080469619</v>
+        <v>0.04932456286841039</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>132</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2410845273.908426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4121655247.007736</v>
+        <v>4178915773.188711</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1379543139154169</v>
+        <v>0.1492278068076394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03845194514171767</v>
+        <v>0.03814006301494428</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>130</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2060827644.637785</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2015514365.789529</v>
+        <v>3265940533.376159</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1916942276952976</v>
+        <v>0.1770297537172711</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05263627180470226</v>
+        <v>0.04372772133886669</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>107</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1007757110.766596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4134498945.643666</v>
+        <v>5299285528.806427</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07424147627787889</v>
+        <v>0.08468868755260131</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02882468133367202</v>
+        <v>0.02138391128712468</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>105</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2067249520.922356</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2476398624.914601</v>
+        <v>3469709979.428394</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1452133551920909</v>
+        <v>0.1481504346394765</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03661858277165743</v>
+        <v>0.03648854912991641</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1238199384.81662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1779518454.375136</v>
+        <v>1336792530.466228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06808371096177986</v>
+        <v>0.08591663755844052</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03370256203033604</v>
+        <v>0.03256740395284167</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>889759376.0619371</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2372710002.710645</v>
+        <v>2466631681.293839</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08146129783460943</v>
+        <v>0.07045242437750138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04234839195947442</v>
+        <v>0.03588485023152715</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>61</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1186355043.550211</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4325837973.91376</v>
+        <v>5299232351.43061</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1269671405771357</v>
+        <v>0.109869367001912</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03874764989737107</v>
+        <v>0.04129249009551889</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>92</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2162919005.408936</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2991047982.243732</v>
+        <v>3475586662.84859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1756067145076384</v>
+        <v>0.1486761641343398</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02671555861724953</v>
+        <v>0.03349115661099069</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>103</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1495524021.995233</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1198629761.185921</v>
+        <v>1356593074.237226</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1900988840947206</v>
+        <v>0.1176249858978299</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01986153863436199</v>
+        <v>0.01712425349209867</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>599314958.1868806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1693351540.697553</v>
+        <v>2647501283.39228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09767599882675847</v>
+        <v>0.1000508815941497</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02444534137136998</v>
+        <v>0.02577780103165556</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>846675829.3699981</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1858839684.434431</v>
+        <v>2425737723.495369</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07954517533451558</v>
+        <v>0.07824653039851977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03013346547173018</v>
+        <v>0.03959320881272074</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>929419891.686358</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2713348350.314338</v>
+        <v>3328529426.226361</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09552368078115936</v>
+        <v>0.09157824279293912</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03670862772162507</v>
+        <v>0.04165502915748319</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1356674253.855655</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1453246128.782059</v>
+        <v>1249402338.348485</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1508451378063922</v>
+        <v>0.1529022537677404</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03468209931588943</v>
+        <v>0.03414151972235189</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>726623058.2075737</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3735339866.620901</v>
+        <v>3931856527.514216</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1228881222855753</v>
+        <v>0.1416918832913894</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03014105451121712</v>
+        <v>0.03545853521926697</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>92</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1867669919.107075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>966114551.928133</v>
+        <v>1198554082.364734</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1028699016716955</v>
+        <v>0.07711063242546867</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02477476541106782</v>
+        <v>0.02824209962709637</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>483057347.741572</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1067849647.868697</v>
+        <v>902091463.323756</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09305829401455706</v>
+        <v>0.1066510506171852</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03548016189057777</v>
+        <v>0.02362076072348317</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>533924812.5986543</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4525605506.532418</v>
+        <v>4196011910.954575</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1542205090572653</v>
+        <v>0.1028544319948788</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02071048080539477</v>
+        <v>0.02192145208473044</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>80</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2262802737.300795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3664576245.711349</v>
+        <v>2760592291.138077</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1013309954122193</v>
+        <v>0.140366918643684</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03996869856869879</v>
+        <v>0.03854717356025511</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>102</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1832288191.764755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4684923115.652821</v>
+        <v>4336497196.18199</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1441943423544578</v>
+        <v>0.1189884747697606</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03491341828936222</v>
+        <v>0.03187953068871466</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>139</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2342461527.190474</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1629384299.037586</v>
+        <v>1611808922.915903</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1204882419031966</v>
+        <v>0.1113247129734614</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02427232610403705</v>
+        <v>0.03508433791275654</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>814692144.756802</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1458146513.466934</v>
+        <v>1125256218.878224</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08099607088820604</v>
+        <v>0.09832165029880707</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03619476340521551</v>
+        <v>0.0319226728002394</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>729073147.4357295</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1595931693.737522</v>
+        <v>1509170272.628705</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07982027851592734</v>
+        <v>0.1188201933945543</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0264618346853285</v>
+        <v>0.02356258897404715</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>797965935.099207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2521911875.166685</v>
+        <v>2863543435.600162</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1790656789189905</v>
+        <v>0.2041994473376263</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05571746792084153</v>
+        <v>0.04156739530228262</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>93</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1260955973.953397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1195143552.823608</v>
+        <v>1444622044.18179</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1136112229981033</v>
+        <v>0.09203512585001387</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02040426815409616</v>
+        <v>0.02549349578838803</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>597571782.2686</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>988664827.1048299</v>
+        <v>1296973279.550478</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09600979933850391</v>
+        <v>0.0927092194719394</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04471695093276051</v>
+        <v>0.03215341341742007</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>494332434.636371</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2407937761.08329</v>
+        <v>2377464048.660868</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1458625068533684</v>
+        <v>0.1340232712217934</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02332736061992854</v>
+        <v>0.02059076678976557</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1203968909.915949</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2786059395.793752</v>
+        <v>2813458005.98629</v>
       </c>
       <c r="F37" t="n">
-        <v>0.107306075539422</v>
+        <v>0.08267343836430967</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02611134324699188</v>
+        <v>0.04064908841048984</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1393029833.314783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2053070050.206339</v>
+        <v>1669705567.947067</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1070889006753997</v>
+        <v>0.07663842889777744</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02614540740843783</v>
+        <v>0.02667163087485512</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1026534996.24046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1798193277.522187</v>
+        <v>2205288071.377923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1797169176251784</v>
+        <v>0.182634369645644</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02132287492166144</v>
+        <v>0.0273207876133613</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>899096663.9416018</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1150511715.112951</v>
+        <v>1548437047.140122</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1221262345577391</v>
+        <v>0.1267466110061541</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05645296000141117</v>
+        <v>0.05955231697337304</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>575255911.2446182</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2382154696.976804</v>
+        <v>2736041987.47368</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1068450650957908</v>
+        <v>0.1301654788303724</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0405512786755744</v>
+        <v>0.0339973666813176</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>79</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1191077385.274697</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4345813307.967814</v>
+        <v>3560102681.369121</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08846280949315707</v>
+        <v>0.1009988968813387</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04483103471311806</v>
+        <v>0.04560285515499089</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2172906707.088088</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2071983477.657486</v>
+        <v>1892724831.29012</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1584844044686263</v>
+        <v>0.1950298013697253</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02280248950057456</v>
+        <v>0.01610119232463745</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>113</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1035991830.535472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1534490954.970201</v>
+        <v>1604237870.74944</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07399896681544088</v>
+        <v>0.06304753549224867</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02406718151603967</v>
+        <v>0.03621705101652523</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>767245490.9585633</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2301303439.555082</v>
+        <v>2251915683.231171</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1634586313863197</v>
+        <v>0.1714961206759817</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0359658154689826</v>
+        <v>0.03928474479802267</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1150651740.992758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5551275652.290381</v>
+        <v>5250755618.107063</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1194956340487484</v>
+        <v>0.1588392341339669</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0479233561633701</v>
+        <v>0.05618181580661831</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>112</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2775637884.533346</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4887858239.482387</v>
+        <v>3373394484.228713</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1780360395815542</v>
+        <v>0.1865215978722035</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04910354057954709</v>
+        <v>0.04014322719643386</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>84</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2443929169.167832</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3794025274.334565</v>
+        <v>4566849971.685391</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1097749066564622</v>
+        <v>0.09714040358266651</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02434370590664234</v>
+        <v>0.03858470799608522</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1897012683.492066</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1733456655.396244</v>
+        <v>1846363480.591826</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1241464848994624</v>
+        <v>0.1281846107897901</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03678011022317619</v>
+        <v>0.04395810292085055</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>866728323.429535</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3565704355.624061</v>
+        <v>3045885164.977465</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1552713950425955</v>
+        <v>0.163294852563527</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03274261108785992</v>
+        <v>0.03469658960878913</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>107</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1782852197.401408</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1495223484.553161</v>
+        <v>1238146404.299093</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1909747348625972</v>
+        <v>0.1661363383533445</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04595198225093525</v>
+        <v>0.05013075793522578</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>747611745.9771994</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4644761208.082548</v>
+        <v>3747462841.347849</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08377431010252956</v>
+        <v>0.1079379297477318</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05911571016002504</v>
+        <v>0.04382062222048495</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>129</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2322380622.576056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2560674845.637981</v>
+        <v>2769092341.073632</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1551305066421109</v>
+        <v>0.1407098995460234</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03157519668052117</v>
+        <v>0.03130815459397421</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1280337485.559817</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3251970134.505777</v>
+        <v>3956579249.889212</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1028300835732658</v>
+        <v>0.1666389894196248</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03196745047117502</v>
+        <v>0.04094743199835044</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>102</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1625985072.597593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4126604889.53654</v>
+        <v>3082417387.249688</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1591560496577217</v>
+        <v>0.1932032531056255</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02773714333020742</v>
+        <v>0.02407014762673531</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2063302425.269468</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1438850796.453547</v>
+        <v>1419346267.989343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1390077179887776</v>
+        <v>0.1180055999899883</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05527059087358881</v>
+        <v>0.05364617505375811</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>719425449.5196522</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4521701497.869287</v>
+        <v>3132650113.141375</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1657521093033717</v>
+        <v>0.1240740610360389</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01667678444473472</v>
+        <v>0.02632813760447226</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>100</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2260850881.111186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1702149996.590945</v>
+        <v>1542561651.47282</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1758816300007972</v>
+        <v>0.1838809266254008</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03592787577996433</v>
+        <v>0.03691519807519879</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>851075010.9893188</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5109776624.349683</v>
+        <v>5177208280.535605</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1203425527680728</v>
+        <v>0.1084083914508609</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0381954393678848</v>
+        <v>0.03149375674744984</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2554888234.599144</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3080576612.751017</v>
+        <v>2495034048.472269</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1608436499317735</v>
+        <v>0.1442754223071891</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02274261855811854</v>
+        <v>0.03139770457310109</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>101</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1540288385.181775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2135945717.679991</v>
+        <v>3246626887.637544</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1706821885267961</v>
+        <v>0.1750837206866452</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02947867820738797</v>
+        <v>0.02347386205215189</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>108</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1067972920.795272</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1569778325.630949</v>
+        <v>1539997611.529668</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1655161983681371</v>
+        <v>0.1785792354259287</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03434875291107417</v>
+        <v>0.04092320494867993</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>784889156.3648685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4284127572.100816</v>
+        <v>3953590472.937676</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0686313264664567</v>
+        <v>0.07060063721986522</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03053986954533652</v>
+        <v>0.04051999342796071</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2142063835.750822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5059078875.252755</v>
+        <v>3395338115.555686</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1713532672821206</v>
+        <v>0.1825604483826102</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02159570731658251</v>
+        <v>0.03015126091658763</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>98</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2529539547.973065</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3811354475.278317</v>
+        <v>5738150869.323127</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1642126076974212</v>
+        <v>0.110808495947467</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02937032421370795</v>
+        <v>0.02461447613169386</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>113</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1905677267.490619</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4037743772.885087</v>
+        <v>5618973850.616714</v>
       </c>
       <c r="F66" t="n">
-        <v>0.104725780928905</v>
+        <v>0.1289469143886105</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04940880139924395</v>
+        <v>0.04074359687170382</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>91</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2018871862.023761</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2932522223.613217</v>
+        <v>2324894136.117558</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08370044184571959</v>
+        <v>0.09757461556534648</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0468246717250129</v>
+        <v>0.04756954013676269</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>101</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1466261135.791373</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5337354044.639076</v>
+        <v>5815356717.613038</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1076082474373485</v>
+        <v>0.1369017813046172</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04332069995521365</v>
+        <v>0.04958085297907217</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2668677099.157975</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1584322791.403264</v>
+        <v>2215697412.839259</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1825461456167342</v>
+        <v>0.1410863061751834</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05135291505441376</v>
+        <v>0.03928932237987778</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>792161346.9008785</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2342627515.810496</v>
+        <v>2918992913.149724</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08668695001243312</v>
+        <v>0.0642564949209011</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04892677060220361</v>
+        <v>0.03696298859710992</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>90</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1171313692.077208</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5220018350.824751</v>
+        <v>4021182937.594621</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1554667036766937</v>
+        <v>0.1345444674684518</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03025173705190848</v>
+        <v>0.02466485001381432</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>114</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2610009297.581952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1965192133.909875</v>
+        <v>1885614206.47078</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07021825333911626</v>
+        <v>0.0968218699542247</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03215880269013825</v>
+        <v>0.03869760032120727</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>982596018.9269915</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2867826274.247017</v>
+        <v>2815521132.18711</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09419119250197296</v>
+        <v>0.07378213429040537</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05037690727341049</v>
+        <v>0.03876781585498289</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>119</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1433913145.217577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2997046993.855778</v>
+        <v>3197026050.963789</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1207677330217255</v>
+        <v>0.1773608478465186</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0252647568662462</v>
+        <v>0.02313993234186639</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>107</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1498523562.606485</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1719196293.471175</v>
+        <v>1752884789.231879</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1581530462895192</v>
+        <v>0.1124569217151455</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03174258497138523</v>
+        <v>0.03718656759922693</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>859598137.2498721</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4354493674.117564</v>
+        <v>5141159514.165298</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1003726876165927</v>
+        <v>0.09641364125990841</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0318003050184934</v>
+        <v>0.0290147598225474</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2177246836.644638</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1811867549.059176</v>
+        <v>1898521723.768256</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1678099699234117</v>
+        <v>0.1743020752327368</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01928179514570936</v>
+        <v>0.03069188831825146</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>905933808.2682217</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3717301791.699088</v>
+        <v>4175364139.043299</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1206011486116389</v>
+        <v>0.110654131505348</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05166006771817706</v>
+        <v>0.0533605770830821</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>109</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1858650881.826297</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1281733322.230119</v>
+        <v>1916584954.343938</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1668036644987829</v>
+        <v>0.1156578072703891</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02538188487797481</v>
+        <v>0.04016947056420965</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>640866657.1675421</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5260785284.122596</v>
+        <v>4091821156.754988</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08385167340030683</v>
+        <v>0.069652839689646</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03236664515057752</v>
+        <v>0.0347433015201164</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>66</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2630392704.229671</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4547543612.235103</v>
+        <v>4013938219.414725</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1317389756976149</v>
+        <v>0.13057043134017</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02878904645388472</v>
+        <v>0.02958485990045755</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2273771789.658646</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3987458895.488913</v>
+        <v>4765984063.678605</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1547102792545682</v>
+        <v>0.1426332983675167</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01920281476387867</v>
+        <v>0.02175585081224534</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1993729488.180787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1598736222.704182</v>
+        <v>1861973320.386622</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1451655021367194</v>
+        <v>0.1114308722630793</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03512067034539005</v>
+        <v>0.03927993804980671</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>799368046.752809</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1740487017.622922</v>
+        <v>2383167361.047234</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08532577579154543</v>
+        <v>0.07799851032289354</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03423004455609909</v>
+        <v>0.036075739246271</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>870243551.8334469</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3510703602.572553</v>
+        <v>2954240217.471829</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1376980151315561</v>
+        <v>0.1850487628634674</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05087759334685228</v>
+        <v>0.04360823304604387</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>118</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1755351917.844851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1830756357.22256</v>
+        <v>2637195895.529746</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1560949070022859</v>
+        <v>0.1417026284619072</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02731006220787164</v>
+        <v>0.02092905973422827</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>43</v>
-      </c>
-      <c r="J86" t="n">
-        <v>915378182.6885451</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1034808967.572741</v>
+        <v>1159622144.640198</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1525665057410973</v>
+        <v>0.1733571542445849</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03779109295958386</v>
+        <v>0.02934451963672766</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>517404497.0312288</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2936154786.424001</v>
+        <v>3340582331.349756</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1236690038424346</v>
+        <v>0.1467362823929128</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02432989043397261</v>
+        <v>0.03191412640448043</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>125</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1468077417.351994</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2348265688.100158</v>
+        <v>2465459895.907193</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09802073082857975</v>
+        <v>0.1410354540604576</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03729430327336424</v>
+        <v>0.02825884434630957</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>106</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1174132929.929809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1591355653.35101</v>
+        <v>1869454994.204497</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1131577891474907</v>
+        <v>0.1090681785022137</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0364435801125766</v>
+        <v>0.04565321742797174</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>795677822.1118503</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1860291679.469731</v>
+        <v>1924358654.432134</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1907692641331055</v>
+        <v>0.1406555731484687</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04310871584885433</v>
+        <v>0.05442939737266362</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>930145830.6127915</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2383123028.105815</v>
+        <v>2089610331.285125</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07130386139523058</v>
+        <v>0.06771620002303554</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04327323684869844</v>
+        <v>0.03095547968675748</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>82</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1191561489.159235</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4274626688.503767</v>
+        <v>3972442541.494754</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1341178370410557</v>
+        <v>0.1387072568000042</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04650781502477916</v>
+        <v>0.04233148020980334</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>95</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2137313327.096029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2168534437.809937</v>
+        <v>1545716270.140239</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1095569375825637</v>
+        <v>0.1479941138154885</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04195473355071867</v>
+        <v>0.04019300875077346</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1084267239.205914</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3103447616.581778</v>
+        <v>2085125850.977255</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09894520668485869</v>
+        <v>0.09534191552935854</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03258178557255136</v>
+        <v>0.03518163667152641</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>76</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1551723800.534143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1668004016.202278</v>
+        <v>1920969434.937434</v>
       </c>
       <c r="F96" t="n">
-        <v>0.114954828777389</v>
+        <v>0.1255862455610997</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0358839322279096</v>
+        <v>0.03742040631463681</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>834002030.5329934</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4699322500.08999</v>
+        <v>5083456611.342394</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1162384788134932</v>
+        <v>0.1454658381684607</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02812075692950667</v>
+        <v>0.02519462050439187</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2349661362.665254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3146433010.403515</v>
+        <v>3079665312.473905</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08151878383353946</v>
+        <v>0.1053715386096022</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02104134473920343</v>
+        <v>0.0319740949390007</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>83</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1573216499.822089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2628485306.197845</v>
+        <v>2550861142.591071</v>
       </c>
       <c r="F99" t="n">
-        <v>0.132635865754808</v>
+        <v>0.09103233169837203</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03044363908991473</v>
+        <v>0.02769635112011349</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1314242612.123341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3082350935.160369</v>
+        <v>4472633250.684541</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1505494119891931</v>
+        <v>0.1187355565163279</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02284330379567251</v>
+        <v>0.02059950647010484</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>96</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1541175464.995749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3560795158.474124</v>
+        <v>2361031304.449224</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1604148277411467</v>
+        <v>0.1785445432329558</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05429234821079239</v>
+        <v>0.04846618081393168</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>126</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1780397742.448968</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_315.xlsx
+++ b/output/fit_clients/fit_round_315.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1591622252.338792</v>
+        <v>1538207879.994591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.112473893216705</v>
+        <v>0.09875920608664313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0287228002842164</v>
+        <v>0.03940290891334501</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2320269101.173358</v>
+        <v>2043468063.399041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1848394335576643</v>
+        <v>0.165890787369274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03692438085444968</v>
+        <v>0.03879746551230821</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3234963114.067323</v>
+        <v>4032339027.066463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1229858433649843</v>
+        <v>0.1660419879882179</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02660317028850189</v>
+        <v>0.02706308287456659</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3318590697.726621</v>
+        <v>3139137841.766634</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106156057391862</v>
+        <v>0.09104302973001319</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03875934356894494</v>
+        <v>0.03745783996349761</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2715571302.970032</v>
+        <v>2163961909.080237</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1309767952521242</v>
+        <v>0.09668679861602264</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04421481136255933</v>
+        <v>0.05026142959094919</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2416689885.091172</v>
+        <v>2607057066.424841</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06606676602674588</v>
+        <v>0.09280249327209267</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04463007156441104</v>
+        <v>0.03121405262192806</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3325039228.67103</v>
+        <v>3259526748.199825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2092423626018041</v>
+        <v>0.1450875589637706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02359509895447784</v>
+        <v>0.03201037706030158</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2291859487.458888</v>
+        <v>2166725970.015006</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1900827739226124</v>
+        <v>0.1232196986168174</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03100691477956262</v>
+        <v>0.03433765805201173</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5128695012.058638</v>
+        <v>4016058958.483589</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1526570678653398</v>
+        <v>0.1307550094480515</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04932456286841039</v>
+        <v>0.03528579050953634</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4178915773.188711</v>
+        <v>3439685735.725186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1492278068076394</v>
+        <v>0.1390470205439757</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03814006301494428</v>
+        <v>0.04207145660891543</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3265940533.376159</v>
+        <v>2102520487.96557</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1770297537172711</v>
+        <v>0.1926082713204394</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04372772133886669</v>
+        <v>0.03365241436018003</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5299285528.806427</v>
+        <v>5336894454.089826</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08468868755260131</v>
+        <v>0.08355341872465177</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02138391128712468</v>
+        <v>0.02392289541954932</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3469709979.428394</v>
+        <v>2970336562.711694</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1481504346394765</v>
+        <v>0.1788635979925416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03648854912991641</v>
+        <v>0.03239551914575432</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1336792530.466228</v>
+        <v>1641775169.381026</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08591663755844052</v>
+        <v>0.08727474491495409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03256740395284167</v>
+        <v>0.03730057632339463</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2466631681.293839</v>
+        <v>2673706320.86277</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07045242437750138</v>
+        <v>0.07432283813053857</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03588485023152715</v>
+        <v>0.04578874341204864</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5299232351.43061</v>
+        <v>3896673633.78247</v>
       </c>
       <c r="F17" t="n">
-        <v>0.109869367001912</v>
+        <v>0.1593203850839622</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04129249009551889</v>
+        <v>0.03288805911868437</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3475586662.84859</v>
+        <v>3664220323.082185</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1486761641343398</v>
+        <v>0.1638448377093017</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03349115661099069</v>
+        <v>0.02946312688020949</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1356593074.237226</v>
+        <v>1084570877.497927</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1176249858978299</v>
+        <v>0.1546051412892638</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01712425349209867</v>
+        <v>0.0236598908161187</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2647501283.39228</v>
+        <v>2391917218.054466</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1000508815941497</v>
+        <v>0.1048647547898236</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02577780103165556</v>
+        <v>0.02263406071105287</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2425737723.495369</v>
+        <v>2156152928.695123</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07824653039851977</v>
+        <v>0.06916405878234511</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03959320881272074</v>
+        <v>0.04131902626174035</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3328529426.226361</v>
+        <v>3057658781.164173</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09157824279293912</v>
+        <v>0.1171014318425265</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04165502915748319</v>
+        <v>0.05205025809705387</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1249402338.348485</v>
+        <v>1021084888.562802</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1529022537677404</v>
+        <v>0.1206009416850498</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03414151972235189</v>
+        <v>0.03853595205276476</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3931856527.514216</v>
+        <v>3385560501.016746</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1416918832913894</v>
+        <v>0.1030662694080676</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03545853521926697</v>
+        <v>0.03602250467226463</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1198554082.364734</v>
+        <v>1409057528.695628</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07711063242546867</v>
+        <v>0.08334673942139866</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02824209962709637</v>
+        <v>0.02447382725059874</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>902091463.323756</v>
+        <v>1052493145.52321</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1066510506171852</v>
+        <v>0.1138151424979374</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02362076072348317</v>
+        <v>0.03395116566597971</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4196011910.954575</v>
+        <v>3541118040.800009</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1028544319948788</v>
+        <v>0.13556018622746</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02192145208473044</v>
+        <v>0.02032897248919683</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2760592291.138077</v>
+        <v>3250938594.39972</v>
       </c>
       <c r="F28" t="n">
-        <v>0.140366918643684</v>
+        <v>0.1430490162578093</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03854717356025511</v>
+        <v>0.04577613287561309</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4336497196.18199</v>
+        <v>3928406583.844429</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1189884747697606</v>
+        <v>0.1160656818860236</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03187953068871466</v>
+        <v>0.03804646405960792</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1611808922.915903</v>
+        <v>2373627412.559426</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1113247129734614</v>
+        <v>0.1254534932714516</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03508433791275654</v>
+        <v>0.03714917274923083</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1125256218.878224</v>
+        <v>1107579814.47206</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09832165029880707</v>
+        <v>0.09954601501262776</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0319226728002394</v>
+        <v>0.04197903405643369</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1509170272.628705</v>
+        <v>1674569902.957887</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1188201933945543</v>
+        <v>0.1005545888810355</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02356258897404715</v>
+        <v>0.03366700397278196</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2863543435.600162</v>
+        <v>2043505371.376535</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2041994473376263</v>
+        <v>0.1485848801715557</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04156739530228262</v>
+        <v>0.05563173723623977</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1444622044.18179</v>
+        <v>1302840111.984448</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09203512585001387</v>
+        <v>0.09925711532598283</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02549349578838803</v>
+        <v>0.02182066025634091</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1296973279.550478</v>
+        <v>1054053307.615464</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0927092194719394</v>
+        <v>0.09131052344325519</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03215341341742007</v>
+        <v>0.03949210200232406</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2377464048.660868</v>
+        <v>2052307507.363256</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1340232712217934</v>
+        <v>0.1173428990299672</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02059076678976557</v>
+        <v>0.01886610313227236</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2813458005.98629</v>
+        <v>2796958241.230759</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08267343836430967</v>
+        <v>0.1097593524445925</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04064908841048984</v>
+        <v>0.03540168472588887</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1669705567.947067</v>
+        <v>1670582667.604104</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07663842889777744</v>
+        <v>0.08409407344340042</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02667163087485512</v>
+        <v>0.03588630578047444</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2205288071.377923</v>
+        <v>2057732080.001658</v>
       </c>
       <c r="F39" t="n">
-        <v>0.182634369645644</v>
+        <v>0.1333562595234222</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0273207876133613</v>
+        <v>0.03138351673602052</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1548437047.140122</v>
+        <v>1267305708.33752</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1267466110061541</v>
+        <v>0.1340611806993251</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05955231697337304</v>
+        <v>0.05794595021915293</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2736041987.47368</v>
+        <v>1985407272.706393</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1301654788303724</v>
+        <v>0.1048546985043422</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0339973666813176</v>
+        <v>0.02900405626218575</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3560102681.369121</v>
+        <v>3956097933.059952</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1009988968813387</v>
+        <v>0.1243428680485158</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04560285515499089</v>
+        <v>0.02892160839716878</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1892724831.29012</v>
+        <v>2395330814.688916</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1950298013697253</v>
+        <v>0.2039939753039394</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01610119232463745</v>
+        <v>0.01643722237060614</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1604237870.74944</v>
+        <v>2001992069.358789</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06304753549224867</v>
+        <v>0.08223977777476019</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03621705101652523</v>
+        <v>0.02789788091672338</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2251915683.231171</v>
+        <v>1859569831.997595</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1714961206759817</v>
+        <v>0.1682932933396449</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03928474479802267</v>
+        <v>0.05233548211457278</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5250755618.107063</v>
+        <v>5063218945.02605</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1588392341339669</v>
+        <v>0.1417695027293858</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05618181580661831</v>
+        <v>0.04742132281867225</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3373394484.228713</v>
+        <v>3440588816.755791</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1865215978722035</v>
+        <v>0.127062750515073</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04014322719643386</v>
+        <v>0.04901645357297768</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4566849971.685391</v>
+        <v>3351784158.259775</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09714040358266651</v>
+        <v>0.07033733756655751</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03858470799608522</v>
+        <v>0.03090219114963404</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1846363480.591826</v>
+        <v>1445323382.273828</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1281846107897901</v>
+        <v>0.1737816175124018</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04395810292085055</v>
+        <v>0.03450009064683318</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3045885164.977465</v>
+        <v>3807251915.224197</v>
       </c>
       <c r="F50" t="n">
-        <v>0.163294852563527</v>
+        <v>0.1260643638820861</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03469658960878913</v>
+        <v>0.05105310713232485</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1238146404.299093</v>
+        <v>979324173.9609017</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1661363383533445</v>
+        <v>0.1598779189510818</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05013075793522578</v>
+        <v>0.05364017290329529</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3747462841.347849</v>
+        <v>4507546081.092583</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1079379297477318</v>
+        <v>0.08546357870243584</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04382062222048495</v>
+        <v>0.03825958568015608</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2769092341.073632</v>
+        <v>3246138168.183311</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1407098995460234</v>
+        <v>0.2003617436585543</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03130815459397421</v>
+        <v>0.03242496163572881</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3956579249.889212</v>
+        <v>4238905589.764621</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1666389894196248</v>
+        <v>0.1676518284819432</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04094743199835044</v>
+        <v>0.03712780731856651</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3082417387.249688</v>
+        <v>4503670442.208231</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1932032531056255</v>
+        <v>0.1876939728502999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02407014762673531</v>
+        <v>0.02817031332966627</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1419346267.989343</v>
+        <v>1412083958.708217</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1180055999899883</v>
+        <v>0.1264561434191966</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05364617505375811</v>
+        <v>0.04280068044464003</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3132650113.141375</v>
+        <v>3053330520.22945</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1240740610360389</v>
+        <v>0.1774166986527729</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02632813760447226</v>
+        <v>0.02485021888806422</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1542561651.47282</v>
+        <v>1719359882.638506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1838809266254008</v>
+        <v>0.1987388804346686</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03691519807519879</v>
+        <v>0.03741572328623715</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5177208280.535605</v>
+        <v>3433629090.950983</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1084083914508609</v>
+        <v>0.0945461272332505</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03149375674744984</v>
+        <v>0.04541598688844255</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2495034048.472269</v>
+        <v>3010803371.72388</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1442754223071891</v>
+        <v>0.1530624513569525</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03139770457310109</v>
+        <v>0.02161211154713687</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3246626887.637544</v>
+        <v>3016990906.104951</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1750837206866452</v>
+        <v>0.17940528597323</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02347386205215189</v>
+        <v>0.03088250122182801</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1539997611.529668</v>
+        <v>2057361639.466544</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1785792354259287</v>
+        <v>0.1266342148330331</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04092320494867993</v>
+        <v>0.04047014753646582</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3953590472.937676</v>
+        <v>4411226616.82692</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07060063721986522</v>
+        <v>0.10159284341696</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04051999342796071</v>
+        <v>0.04092057545027776</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3395338115.555686</v>
+        <v>4329101150.203508</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1825604483826102</v>
+        <v>0.1871100789906833</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03015126091658763</v>
+        <v>0.02581777713097711</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5738150869.323127</v>
+        <v>5150959979.749793</v>
       </c>
       <c r="F65" t="n">
-        <v>0.110808495947467</v>
+        <v>0.1320892391890091</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02461447613169386</v>
+        <v>0.0257045094572215</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5618973850.616714</v>
+        <v>5357424744.0936</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1289469143886105</v>
+        <v>0.1382654280795933</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04074359687170382</v>
+        <v>0.05113188243874421</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2324894136.117558</v>
+        <v>3119138571.88635</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09757461556534648</v>
+        <v>0.094141101888315</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04756954013676269</v>
+        <v>0.03236145539039668</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5815356717.613038</v>
+        <v>3955175170.303557</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369017813046172</v>
+        <v>0.1591331102921501</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04958085297907217</v>
+        <v>0.04139616829444215</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2215697412.839259</v>
+        <v>1913371699.171496</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1410863061751834</v>
+        <v>0.1760986193970902</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03928932237987778</v>
+        <v>0.04360360415273261</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2918992913.149724</v>
+        <v>3070597731.414601</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0642564949209011</v>
+        <v>0.09214735527260436</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03696298859710992</v>
+        <v>0.03685702164979014</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4021182937.594621</v>
+        <v>4853510629.65702</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1345444674684518</v>
+        <v>0.1472359652403879</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02466485001381432</v>
+        <v>0.02535987250340708</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1885614206.47078</v>
+        <v>1713672420.043011</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0968218699542247</v>
+        <v>0.08926498489381064</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03869760032120727</v>
+        <v>0.03230913966600928</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2815521132.18711</v>
+        <v>2389124573.469351</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07378213429040537</v>
+        <v>0.0952144298939705</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03876781585498289</v>
+        <v>0.04178794742623766</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3197026050.963789</v>
+        <v>2890741209.482584</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1773608478465186</v>
+        <v>0.1558711796256038</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02313993234186639</v>
+        <v>0.02860819273590593</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1752884789.231879</v>
+        <v>1906433213.891891</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1124569217151455</v>
+        <v>0.15233340516648</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03718656759922693</v>
+        <v>0.02880046807997172</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5141159514.165298</v>
+        <v>4431076231.511507</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09641364125990841</v>
+        <v>0.09872434510816339</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0290147598225474</v>
+        <v>0.03348571341079351</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1898521723.768256</v>
+        <v>1685734692.086842</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1743020752327368</v>
+        <v>0.1688836927406338</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03069188831825146</v>
+        <v>0.01972431941507584</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4175364139.043299</v>
+        <v>3329156529.107059</v>
       </c>
       <c r="F78" t="n">
-        <v>0.110654131505348</v>
+        <v>0.08486884131897313</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0533605770830821</v>
+        <v>0.04330757340315305</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1916584954.343938</v>
+        <v>1407118060.571871</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1156578072703891</v>
+        <v>0.1160115554919707</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04016947056420965</v>
+        <v>0.03544414769743773</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4091821156.754988</v>
+        <v>4558995445.785078</v>
       </c>
       <c r="F80" t="n">
-        <v>0.069652839689646</v>
+        <v>0.09367291088560714</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0347433015201164</v>
+        <v>0.02915180712587197</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4013938219.414725</v>
+        <v>3182642285.615015</v>
       </c>
       <c r="F81" t="n">
-        <v>0.13057043134017</v>
+        <v>0.1253941675420843</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02958485990045755</v>
+        <v>0.03002206766712172</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4765984063.678605</v>
+        <v>4276608144.217514</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1426332983675167</v>
+        <v>0.1749702929316696</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02175585081224534</v>
+        <v>0.01846535321486926</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1861973320.386622</v>
+        <v>2439520429.276254</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1114308722630793</v>
+        <v>0.1253184249093132</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03927993804980671</v>
+        <v>0.0302540859757701</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2383167361.047234</v>
+        <v>1627512692.077718</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07799851032289354</v>
+        <v>0.1106185407511257</v>
       </c>
       <c r="G84" t="n">
-        <v>0.036075739246271</v>
+        <v>0.03959141970212637</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2954240217.471829</v>
+        <v>2425168142.637511</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1850487628634674</v>
+        <v>0.1676357779336051</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04360823304604387</v>
+        <v>0.0366659382056339</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2637195895.529746</v>
+        <v>2458358949.349299</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1417026284619072</v>
+        <v>0.161144304400006</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02092905973422827</v>
+        <v>0.02153594168468179</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1159622144.640198</v>
+        <v>1106187992.725674</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1733571542445849</v>
+        <v>0.1207889427430074</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02934451963672766</v>
+        <v>0.0431995834353224</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3340582331.349756</v>
+        <v>2502707629.46934</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1467362823929128</v>
+        <v>0.1577629110182514</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03191412640448043</v>
+        <v>0.03752539617549792</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2465459895.907193</v>
+        <v>3186657497.507356</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1410354540604576</v>
+        <v>0.1045334368892067</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02825884434630957</v>
+        <v>0.03539186312447053</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1869454994.204497</v>
+        <v>1328121635.421139</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1090681785022137</v>
+        <v>0.1342140178319153</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04565321742797174</v>
+        <v>0.04553355955582834</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1924358654.432134</v>
+        <v>1738345229.604712</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1406555731484687</v>
+        <v>0.1271861253294194</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05442939737266362</v>
+        <v>0.05555460660838698</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2089610331.285125</v>
+        <v>1978387760.324381</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06771620002303554</v>
+        <v>0.07663495207583661</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03095547968675748</v>
+        <v>0.0356797242502382</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3972442541.494754</v>
+        <v>3805665650.130066</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1387072568000042</v>
+        <v>0.1347955807067428</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04233148020980334</v>
+        <v>0.04922199566348777</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1545716270.140239</v>
+        <v>1567142385.613734</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1479941138154885</v>
+        <v>0.1650902029532212</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04019300875077346</v>
+        <v>0.03453520002033419</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2085125850.977255</v>
+        <v>2411021486.990547</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09534191552935854</v>
+        <v>0.1157645179181226</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03518163667152641</v>
+        <v>0.03738931779854875</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1920969434.937434</v>
+        <v>1991681209.125017</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1255862455610997</v>
+        <v>0.1112448786847861</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03742040631463681</v>
+        <v>0.04013252911056774</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5083456611.342394</v>
+        <v>3742052471.848635</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1454658381684607</v>
+        <v>0.1637023837078758</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02519462050439187</v>
+        <v>0.02116296049804757</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3079665312.473905</v>
+        <v>3832897486.302003</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1053715386096022</v>
+        <v>0.07883047622807809</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0319740949390007</v>
+        <v>0.02089660317819928</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2550861142.591071</v>
+        <v>2536372246.09283</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09103233169837203</v>
+        <v>0.1222573021813162</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02769635112011349</v>
+        <v>0.02276393474097824</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4472633250.684541</v>
+        <v>4730972857.038521</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1187355565163279</v>
+        <v>0.1434398483001702</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02059950647010484</v>
+        <v>0.02082357616766916</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2361031304.449224</v>
+        <v>3439510132.715392</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1785445432329558</v>
+        <v>0.1509714730021659</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04846618081393168</v>
+        <v>0.05021824452609292</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_315.xlsx
+++ b/output/fit_clients/fit_round_315.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1538207879.994591</v>
+        <v>2324645462.530976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09875920608664313</v>
+        <v>0.07581349477511097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03940290891334501</v>
+        <v>0.04110752500070278</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2043468063.399041</v>
+        <v>2570188363.248454</v>
       </c>
       <c r="F3" t="n">
-        <v>0.165890787369274</v>
+        <v>0.1476852411657829</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03879746551230821</v>
+        <v>0.04320869164949468</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4032339027.066463</v>
+        <v>5175720439.111404</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1660419879882179</v>
+        <v>0.116076405965191</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02706308287456659</v>
+        <v>0.0320216111143343</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>165</v>
+      </c>
+      <c r="J4" t="n">
+        <v>314</v>
+      </c>
+      <c r="K4" t="n">
+        <v>75.19774835175606</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3139137841.766634</v>
+        <v>2675256282.713771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09104302973001319</v>
+        <v>0.07055553197085766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03745783996349761</v>
+        <v>0.03923621979520371</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2163961909.080237</v>
+        <v>2539078547.272429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09668679861602264</v>
+        <v>0.09488938183946027</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05026142959094919</v>
+        <v>0.05059153764858451</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2607057066.424841</v>
+        <v>2913580993.521439</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09280249327209267</v>
+        <v>0.09450223206840397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03121405262192806</v>
+        <v>0.03049406261611278</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3259526748.199825</v>
+        <v>3171559142.33936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1450875589637706</v>
+        <v>0.1921119849820807</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03201037706030158</v>
+        <v>0.02688482046547541</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>314</v>
+      </c>
+      <c r="K8" t="n">
+        <v>54.96897536664462</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2166725970.015006</v>
+        <v>1792049834.816907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1232196986168174</v>
+        <v>0.1880403580965246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03433765805201173</v>
+        <v>0.02655126217808978</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4016058958.483589</v>
+        <v>5427073743.291001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1307550094480515</v>
+        <v>0.1703377595563561</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03528579050953634</v>
+        <v>0.05451814306678269</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>276</v>
+      </c>
+      <c r="J10" t="n">
+        <v>315</v>
+      </c>
+      <c r="K10" t="n">
+        <v>77.5280566407865</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3439685735.725186</v>
+        <v>4175937158.608663</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1390470205439757</v>
+        <v>0.1731873062894101</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04207145660891543</v>
+        <v>0.04612961625234583</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>126</v>
+      </c>
+      <c r="J11" t="n">
+        <v>315</v>
+      </c>
+      <c r="K11" t="n">
+        <v>90.79334343416279</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2102520487.96557</v>
+        <v>2620953977.718976</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1926082713204394</v>
+        <v>0.1967747504571619</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03365241436018003</v>
+        <v>0.05177998870479174</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5336894454.089826</v>
+        <v>3977990082.955098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08355341872465177</v>
+        <v>0.08952283981913792</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02392289541954932</v>
+        <v>0.02927756450936116</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>163</v>
+      </c>
+      <c r="J13" t="n">
+        <v>315</v>
+      </c>
+      <c r="K13" t="n">
+        <v>77.68379598262959</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2970336562.711694</v>
+        <v>2678987354.94611</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1788635979925416</v>
+        <v>0.1800017539555772</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03239551914575432</v>
+        <v>0.0298439687666035</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1641775169.381026</v>
+        <v>1577927424.062331</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08727474491495409</v>
+        <v>0.1079531672166365</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03730057632339463</v>
+        <v>0.03899830612677226</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2673706320.86277</v>
+        <v>2219929586.689975</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07432283813053857</v>
+        <v>0.07118034503759174</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04578874341204864</v>
+        <v>0.04806809936719022</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3896673633.78247</v>
+        <v>4830349067.293098</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1593203850839622</v>
+        <v>0.1112552782146017</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03288805911868437</v>
+        <v>0.04202771312497806</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>148</v>
+      </c>
+      <c r="J17" t="n">
+        <v>315</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3664220323.082185</v>
+        <v>2834196051.753235</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1638448377093017</v>
+        <v>0.159304573530953</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02946312688020949</v>
+        <v>0.02821285983041493</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1084570877.497927</v>
+        <v>843538538.6187464</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1546051412892638</v>
+        <v>0.1220842956548129</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0236598908161187</v>
+        <v>0.02238672540586055</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2391917218.054466</v>
+        <v>1877651978.732389</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1048647547898236</v>
+        <v>0.1110343234279991</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02263406071105287</v>
+        <v>0.02913488746664834</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2156152928.695123</v>
+        <v>2471056158.441108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06916405878234511</v>
+        <v>0.06350833415406208</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04131902626174035</v>
+        <v>0.04395313550643844</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3057658781.164173</v>
+        <v>3554206789.613161</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1171014318425265</v>
+        <v>0.128659935063549</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05205025809705387</v>
+        <v>0.04306381576930747</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>314</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64.18963575323725</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1021084888.562802</v>
+        <v>1035122251.19407</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1206009416850498</v>
+        <v>0.1266324197488828</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03853595205276476</v>
+        <v>0.04298899291067653</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3385560501.016746</v>
+        <v>2913127877.231952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1030662694080676</v>
+        <v>0.102153700473522</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03602250467226463</v>
+        <v>0.02353159101447309</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>94</v>
+      </c>
+      <c r="J24" t="n">
+        <v>314</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40.58118262052474</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1409057528.695628</v>
+        <v>1347159010.126115</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08334673942139866</v>
+        <v>0.1079061557045183</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02447382725059874</v>
+        <v>0.02992851925446402</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1052493145.52321</v>
+        <v>1398094132.595582</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1138151424979374</v>
+        <v>0.07787350162463062</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03395116566597971</v>
+        <v>0.02583241682421394</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3541118040.800009</v>
+        <v>4419902446.289532</v>
       </c>
       <c r="F27" t="n">
-        <v>0.13556018622746</v>
+        <v>0.1121090700322858</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02032897248919683</v>
+        <v>0.01760271335117738</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>131</v>
+      </c>
+      <c r="J27" t="n">
+        <v>314</v>
+      </c>
+      <c r="K27" t="n">
+        <v>73.86802568288837</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3250938594.39972</v>
+        <v>2832390793.561491</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1430490162578093</v>
+        <v>0.1082566202752542</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04577613287561309</v>
+        <v>0.04250831411528788</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3928406583.844429</v>
+        <v>5581804934.74471</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1160656818860236</v>
+        <v>0.101744716344418</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03804646405960792</v>
+        <v>0.02871682155324179</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>293</v>
+      </c>
+      <c r="J29" t="n">
+        <v>314</v>
+      </c>
+      <c r="K29" t="n">
+        <v>77.41346188138625</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2373627412.559426</v>
+        <v>2032211767.781922</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1254534932714516</v>
+        <v>0.08656852174845582</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03714917274923083</v>
+        <v>0.03099542928771534</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1107579814.47206</v>
+        <v>1062657996.232274</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09954601501262776</v>
+        <v>0.09860803537693034</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04197903405643369</v>
+        <v>0.04468369047268224</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1674569902.957887</v>
+        <v>1605163903.578496</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1005545888810355</v>
+        <v>0.1129836184695454</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03366700397278196</v>
+        <v>0.02842859170758211</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1604,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2043505371.376535</v>
+        <v>2871494553.618803</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1485848801715557</v>
+        <v>0.1697814605789744</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05563173723623977</v>
+        <v>0.05195520653719647</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1302840111.984448</v>
+        <v>1301851912.291584</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09925711532598283</v>
+        <v>0.1171239052095183</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02182066025634091</v>
+        <v>0.02758249322323652</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1054053307.615464</v>
+        <v>1115835105.550969</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09131052344325519</v>
+        <v>0.1179055922054333</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03949210200232406</v>
+        <v>0.03886317151447448</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2052307507.363256</v>
+        <v>3204604475.515303</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1173428990299672</v>
+        <v>0.1461773781437189</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01886610313227236</v>
+        <v>0.0218719165674026</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2796958241.230759</v>
+        <v>2100342900.658549</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097593524445925</v>
+        <v>0.07189476651315728</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03540168472588887</v>
+        <v>0.0306325349095122</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1670582667.604104</v>
+        <v>1943243594.049675</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08409407344340042</v>
+        <v>0.09681823773814108</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03588630578047444</v>
+        <v>0.0375005324409484</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1814,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2057732080.001658</v>
+        <v>1430510028.101347</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1333562595234222</v>
+        <v>0.1506753283571219</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03138351673602052</v>
+        <v>0.02613890983000368</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1267305708.33752</v>
+        <v>1422749031.121914</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1340611806993251</v>
+        <v>0.1592275254158878</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05794595021915293</v>
+        <v>0.05354744952300792</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1985407272.706393</v>
+        <v>2320822867.01279</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1048546985043422</v>
+        <v>0.1401943847460228</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02900405626218575</v>
+        <v>0.03231360502094858</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3956097933.059952</v>
+        <v>3109843450.590312</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1243428680485158</v>
+        <v>0.1115986151206123</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02892160839716878</v>
+        <v>0.03823156568389494</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>129</v>
+      </c>
+      <c r="J42" t="n">
+        <v>310</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1954,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2395330814.688916</v>
+        <v>2312244333.249034</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2039939753039394</v>
+        <v>0.1347213762058971</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01643722237060614</v>
+        <v>0.02263742423737284</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2001992069.358789</v>
+        <v>2031437978.359289</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08223977777476019</v>
+        <v>0.08968193353080109</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02789788091672338</v>
+        <v>0.02794799912372837</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2024,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1859569831.997595</v>
+        <v>2310122563.612173</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1682932933396449</v>
+        <v>0.139330982496545</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05233548211457278</v>
+        <v>0.04963450140193877</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5063218945.02605</v>
+        <v>3910371273.350928</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1417695027293858</v>
+        <v>0.1170394229813562</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04742132281867225</v>
+        <v>0.05366602841291681</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>189</v>
+      </c>
+      <c r="J46" t="n">
+        <v>314</v>
+      </c>
+      <c r="K46" t="n">
+        <v>74.00760283838247</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2096,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3440588816.755791</v>
+        <v>3459329012.72788</v>
       </c>
       <c r="F47" t="n">
-        <v>0.127062750515073</v>
+        <v>0.1444464721669458</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04901645357297768</v>
+        <v>0.03984847826748823</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>140</v>
+      </c>
+      <c r="J47" t="n">
+        <v>313</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3351784158.259775</v>
+        <v>4506045211.073286</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07033733756655751</v>
+        <v>0.1074721262909218</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03090219114963404</v>
+        <v>0.03541153705397129</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>158</v>
+      </c>
+      <c r="J48" t="n">
+        <v>315</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1445323382.273828</v>
+        <v>1524118268.962229</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1737816175124018</v>
+        <v>0.1834786992919492</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03450009064683318</v>
+        <v>0.04075439032063918</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3807251915.224197</v>
+        <v>4060791249.611729</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1260643638820861</v>
+        <v>0.166659024908859</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05105310713232485</v>
+        <v>0.04223192005926819</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>100</v>
+      </c>
+      <c r="J50" t="n">
+        <v>315</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>979324173.9609017</v>
+        <v>1429165648.594537</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1598779189510818</v>
+        <v>0.1857155540574661</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05364017290329529</v>
+        <v>0.03862871451262048</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4507546081.092583</v>
+        <v>4210782115.560023</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08546357870243584</v>
+        <v>0.08514586131904432</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03825958568015608</v>
+        <v>0.04646069547111873</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>192</v>
+      </c>
+      <c r="J52" t="n">
+        <v>314</v>
+      </c>
+      <c r="K52" t="n">
+        <v>74.30120751310214</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3246138168.183311</v>
+        <v>2875641725.431014</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2003617436585543</v>
+        <v>0.1304275108836609</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03242496163572881</v>
+        <v>0.02489254015255619</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>313</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4238905589.764621</v>
+        <v>3040236569.011341</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1676518284819432</v>
+        <v>0.1072264699662666</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03712780731856651</v>
+        <v>0.05009987485943364</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>166</v>
+      </c>
+      <c r="J54" t="n">
+        <v>314</v>
+      </c>
+      <c r="K54" t="n">
+        <v>45.13806167349498</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4503670442.208231</v>
+        <v>4226398099.083329</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1876939728502999</v>
+        <v>0.1463621996554684</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02817031332966627</v>
+        <v>0.02498583622735698</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>145</v>
+      </c>
+      <c r="J55" t="n">
+        <v>315</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1412083958.708217</v>
+        <v>1297558686.850804</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1264561434191966</v>
+        <v>0.1011665522439307</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04280068044464003</v>
+        <v>0.04059816933840381</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3053330520.22945</v>
+        <v>2805415797.306903</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1774166986527729</v>
+        <v>0.1561029322873764</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02485021888806422</v>
+        <v>0.02061003931783491</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>129</v>
+      </c>
+      <c r="J57" t="n">
+        <v>312</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1719359882.638506</v>
+        <v>1908487966.981799</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1987388804346686</v>
+        <v>0.1871186272597412</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03741572328623715</v>
+        <v>0.02460448250874949</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3433629090.950983</v>
+        <v>5054645124.333515</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0945461272332505</v>
+        <v>0.1084164162182888</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04541598688844255</v>
+        <v>0.04283643443574421</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>152</v>
+      </c>
+      <c r="J59" t="n">
+        <v>315</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3010803371.72388</v>
+        <v>3397932478.83856</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1530624513569525</v>
+        <v>0.1730622192827001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02161211154713687</v>
+        <v>0.0267587567932863</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>54</v>
+      </c>
+      <c r="J60" t="n">
+        <v>310</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2584,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3016990906.104951</v>
+        <v>2535148044.237506</v>
       </c>
       <c r="F61" t="n">
-        <v>0.17940528597323</v>
+        <v>0.1128543894904914</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03088250122182801</v>
+        <v>0.02333007762205181</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="n">
+        <v>41.55894979629449</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2057361639.466544</v>
+        <v>1433406143.018498</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1266342148330331</v>
+        <v>0.1885223535984105</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04047014753646582</v>
+        <v>0.04422176159265109</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4411226616.82692</v>
+        <v>3582479281.149746</v>
       </c>
       <c r="F63" t="n">
-        <v>0.10159284341696</v>
+        <v>0.1074063793391803</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04092057545027776</v>
+        <v>0.0457876098586041</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>153</v>
+      </c>
+      <c r="J63" t="n">
+        <v>313</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4329101150.203508</v>
+        <v>5165448323.833244</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1871100789906833</v>
+        <v>0.1235519842772667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02581777713097711</v>
+        <v>0.02701470724254935</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>155</v>
+      </c>
+      <c r="J64" t="n">
+        <v>315</v>
+      </c>
+      <c r="K64" t="n">
+        <v>77.44734000737935</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5150959979.749793</v>
+        <v>3821316422.222523</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1320892391890091</v>
+        <v>0.1517911885745032</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0257045094572215</v>
+        <v>0.02395721292305368</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>248</v>
+      </c>
+      <c r="J65" t="n">
+        <v>315</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5357424744.0936</v>
+        <v>4547131523.385437</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1382654280795933</v>
+        <v>0.09936419025132627</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05113188243874421</v>
+        <v>0.04125908196479947</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>155</v>
+      </c>
+      <c r="J66" t="n">
+        <v>315</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3119138571.88635</v>
+        <v>2196063415.806174</v>
       </c>
       <c r="F67" t="n">
-        <v>0.094141101888315</v>
+        <v>0.09444757159302462</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03236145539039668</v>
+        <v>0.04880484601420945</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3955175170.303557</v>
+        <v>4910722521.388736</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1591331102921501</v>
+        <v>0.1297795574320935</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04139616829444215</v>
+        <v>0.0390689447544882</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>169</v>
+      </c>
+      <c r="J68" t="n">
+        <v>315</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1913371699.171496</v>
+        <v>2290015555.482846</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1760986193970902</v>
+        <v>0.1279787155893532</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04360360415273261</v>
+        <v>0.05773952265128583</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3070597731.414601</v>
+        <v>2247353396.576666</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09214735527260436</v>
+        <v>0.08048225042819492</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03685702164979014</v>
+        <v>0.04125657423143094</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4853510629.65702</v>
+        <v>5158172119.092982</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1472359652403879</v>
+        <v>0.1258124654732979</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02535987250340708</v>
+        <v>0.03036025996074522</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>233</v>
+      </c>
+      <c r="J71" t="n">
+        <v>315</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1713672420.043011</v>
+        <v>1935945420.534149</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08926498489381064</v>
+        <v>0.06919847823484043</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03230913966600928</v>
+        <v>0.04773699077731367</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2389124573.469351</v>
+        <v>3147842407.598445</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0952144298939705</v>
+        <v>0.09215419156346533</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04178794742623766</v>
+        <v>0.03871290442963159</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2890741209.482584</v>
+        <v>4002504775.095368</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1558711796256038</v>
+        <v>0.1324289827412945</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02860819273590593</v>
+        <v>0.03528865580065266</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>82</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1906433213.891891</v>
+        <v>2358722962.150445</v>
       </c>
       <c r="F75" t="n">
-        <v>0.15233340516648</v>
+        <v>0.116372684375688</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02880046807997172</v>
+        <v>0.02829310003226205</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4431076231.511507</v>
+        <v>4157170389.20748</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09872434510816339</v>
+        <v>0.1217624172120041</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03348571341079351</v>
+        <v>0.02817172071799546</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>148</v>
+      </c>
+      <c r="J76" t="n">
+        <v>315</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1685734692.086842</v>
+        <v>1740798336.20707</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1688836927406338</v>
+        <v>0.1608013150140498</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01972431941507584</v>
+        <v>0.02442767465605886</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3329156529.107059</v>
+        <v>3653388070.137372</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08486884131897313</v>
+        <v>0.1090979208101204</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04330757340315305</v>
+        <v>0.04620069866882694</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>156</v>
+      </c>
+      <c r="J78" t="n">
+        <v>314</v>
+      </c>
+      <c r="K78" t="n">
+        <v>67.58823066428366</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1407118060.571871</v>
+        <v>1739159606.330572</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1160115554919707</v>
+        <v>0.134964931585939</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03544414769743773</v>
+        <v>0.03317871900870499</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4558995445.785078</v>
+        <v>4357057688.26413</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09367291088560714</v>
+        <v>0.1066964230225344</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02915180712587197</v>
+        <v>0.0278382784618492</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>154</v>
+      </c>
+      <c r="J80" t="n">
+        <v>314</v>
+      </c>
+      <c r="K80" t="n">
+        <v>58.70517971222158</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3182642285.615015</v>
+        <v>5058122819.124871</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1253941675420843</v>
+        <v>0.1247112020587734</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03002206766712172</v>
+        <v>0.03155567211330321</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>145</v>
+      </c>
+      <c r="J81" t="n">
+        <v>315</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4276608144.217514</v>
+        <v>4689580155.655127</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1749702929316696</v>
+        <v>0.2084290909891013</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01846535321486926</v>
+        <v>0.02244546038713339</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>228</v>
+      </c>
+      <c r="J82" t="n">
+        <v>315</v>
+      </c>
+      <c r="K82" t="n">
+        <v>77.87067892549146</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2439520429.276254</v>
+        <v>1856490083.156968</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1253184249093132</v>
+        <v>0.1484676033195021</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0302540859757701</v>
+        <v>0.04270937320761366</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1627512692.077718</v>
+        <v>1831696106.785393</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1106185407511257</v>
+        <v>0.09315250692773695</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03959141970212637</v>
+        <v>0.04620001956238327</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2425168142.637511</v>
+        <v>3662136778.586687</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1676357779336051</v>
+        <v>0.1299989788648254</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0366659382056339</v>
+        <v>0.05526958964910567</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>41</v>
+      </c>
+      <c r="J85" t="n">
+        <v>315</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2458358949.349299</v>
+        <v>2202633032.886805</v>
       </c>
       <c r="F86" t="n">
-        <v>0.161144304400006</v>
+        <v>0.1361407262477011</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02153594168468179</v>
+        <v>0.02293027589542546</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1106187992.725674</v>
+        <v>1186237833.826138</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1207889427430074</v>
+        <v>0.1301074782138391</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0431995834353224</v>
+        <v>0.03415628135296237</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2502707629.46934</v>
+        <v>2518127461.158527</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1577629110182514</v>
+        <v>0.1134887548609607</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03752539617549792</v>
+        <v>0.03470657666504602</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3186657497.507356</v>
+        <v>2572739759.780766</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1045334368892067</v>
+        <v>0.1259273867098878</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03539186312447053</v>
+        <v>0.03604561184716604</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="n">
+        <v>42.43258247166009</v>
       </c>
     </row>
     <row r="90">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1328121635.421139</v>
+        <v>1306011587.96336</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1342140178319153</v>
+        <v>0.1098028080564344</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04553355955582834</v>
+        <v>0.04862986574316686</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1738345229.604712</v>
+        <v>1455817225.650985</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1271861253294194</v>
+        <v>0.1337622009793517</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05555460660838698</v>
+        <v>0.0580629085830657</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1978387760.324381</v>
+        <v>2464275315.159653</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07663495207583661</v>
+        <v>0.1048511642111472</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0356797242502382</v>
+        <v>0.04613654159401442</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3805665650.130066</v>
+        <v>4098813230.951648</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1347955807067428</v>
+        <v>0.1359214177431025</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04922199566348777</v>
+        <v>0.0477829219297151</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>141</v>
+      </c>
+      <c r="J93" t="n">
+        <v>314</v>
+      </c>
+      <c r="K93" t="n">
+        <v>77.35771931630212</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1567142385.613734</v>
+        <v>2286170143.572113</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1650902029532212</v>
+        <v>0.1208552117911453</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03453520002033419</v>
+        <v>0.03005131315352581</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2411021486.990547</v>
+        <v>2562407939.650319</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1157645179181226</v>
+        <v>0.1294097919997216</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03738931779854875</v>
+        <v>0.03584267523504054</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1991681209.125017</v>
+        <v>1632811105.201</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1112448786847861</v>
+        <v>0.1404715593258276</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04013252911056774</v>
+        <v>0.03050306889128334</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3742052471.848635</v>
+        <v>5257047967.88465</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1637023837078758</v>
+        <v>0.117358062439541</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02116296049804757</v>
+        <v>0.02527538318734813</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>159</v>
+      </c>
+      <c r="J97" t="n">
+        <v>315</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3832897486.302003</v>
+        <v>3653587064.076025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07883047622807809</v>
+        <v>0.1247677357814238</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02089660317819928</v>
+        <v>0.02872734452022759</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>77</v>
+      </c>
+      <c r="J98" t="n">
+        <v>315</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2536372246.09283</v>
+        <v>2097442962.901662</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1222573021813162</v>
+        <v>0.144124905335804</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02276393474097824</v>
+        <v>0.03335855673013626</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4730972857.038521</v>
+        <v>3136623711.133398</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1434398483001702</v>
+        <v>0.117588545626399</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02082357616766916</v>
+        <v>0.0217232622661298</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>138</v>
+      </c>
+      <c r="J100" t="n">
+        <v>314</v>
+      </c>
+      <c r="K100" t="n">
+        <v>48.84200637478133</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3439510132.715392</v>
+        <v>3086654704.291447</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1509714730021659</v>
+        <v>0.1852863207686713</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05021824452609292</v>
+        <v>0.04719481727340449</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
